--- a/data/trans_dic/P11_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P11_R2-Provincia-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.1536561326208508</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.04893606472389549</v>
+        <v>0.0489360647238955</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.04841685189414315</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03022668968351359</v>
+        <v>0.02963823014335027</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04152862686742203</v>
+        <v>0.04095165262739858</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03859109848283069</v>
+        <v>0.03858320227049058</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0101518825238591</v>
+        <v>0.009579155329985425</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02381726255352756</v>
+        <v>0.02461841878456134</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.113488079665709</v>
+        <v>0.1172984432669963</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1131955435977262</v>
+        <v>0.1133164611635906</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03320144116950296</v>
+        <v>0.03152126835041449</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03279176649178861</v>
+        <v>0.03202975983149545</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0880302155079886</v>
+        <v>0.08640758290426144</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.08622786935533651</v>
+        <v>0.0847896693894175</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02306753367092517</v>
+        <v>0.02310484228840322</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08125608084480576</v>
+        <v>0.08157166934539015</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1019200633067671</v>
+        <v>0.1023448751341429</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09618109898245289</v>
+        <v>0.09918349378204655</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04370356375424959</v>
+        <v>0.03979942848121742</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0748683976400235</v>
+        <v>0.07788704335781559</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2035369928046115</v>
+        <v>0.2046115735706688</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2068605626565421</v>
+        <v>0.2028796486496273</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07967597628977924</v>
+        <v>0.0777841974341331</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07106640832358682</v>
+        <v>0.06881741832618984</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1462077646277667</v>
+        <v>0.1415176190985608</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1415524603976321</v>
+        <v>0.1392854266164497</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05197852258285342</v>
+        <v>0.05053145965589127</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.08086859209879674</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.08325997404102904</v>
+        <v>0.08325997404102907</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.05994628837592195</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02322630841931525</v>
+        <v>0.0249363198704147</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04493550330723948</v>
+        <v>0.04676677797493312</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02727881801172786</v>
+        <v>0.02717458886761166</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03508020721198859</v>
+        <v>0.03568614463663534</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05873747560293712</v>
+        <v>0.05819816365373674</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.09557821190439381</v>
+        <v>0.09781052999346049</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0585298844386381</v>
+        <v>0.05700305168489554</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.06528180565705952</v>
+        <v>0.06415977813540327</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0459804674166901</v>
+        <v>0.0453240364992879</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.07784943056662276</v>
+        <v>0.07955763228202195</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04687392768952937</v>
+        <v>0.04652281985053341</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05461168232480235</v>
+        <v>0.05435789976964992</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06432639112897436</v>
+        <v>0.06473390885845066</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09826950064084136</v>
+        <v>0.1004551027026733</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06495270095750855</v>
+        <v>0.06275734931849572</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0805031591528724</v>
+        <v>0.08401412194347968</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1079822906480707</v>
+        <v>0.1061539991422857</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1581186793054989</v>
+        <v>0.1559715369220781</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1096480481328012</v>
+        <v>0.1118833992595592</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1036046701402203</v>
+        <v>0.1047651949728015</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07564979613107449</v>
+        <v>0.07609588973355616</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1181732697851784</v>
+        <v>0.1198373607064719</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.08064535868156399</v>
+        <v>0.07953940109096203</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.08529991093845708</v>
+        <v>0.08579842973871625</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.002726134452583918</v>
+        <v>0.002732452693991837</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0348910494707827</v>
+        <v>0.03725523197022189</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.004863065911398252</v>
+        <v>0.005302066534608628</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1230066641362432</v>
+        <v>0.1211098973704358</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.009091741374314783</v>
+        <v>0.009473587056592622</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05164060837909016</v>
+        <v>0.05277281128861265</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02570499671687702</v>
+        <v>0.02426020052543382</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1659661301116554</v>
+        <v>0.1672666953508617</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.008018917708127115</v>
+        <v>0.007722302797906784</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.05064151462021343</v>
+        <v>0.05018791442480495</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01922446674249325</v>
+        <v>0.01735868273301972</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1529699550987703</v>
+        <v>0.1534974917969323</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02745400637268132</v>
+        <v>0.02863140434050123</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09393123447409496</v>
+        <v>0.09435937770362933</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03401166253176138</v>
+        <v>0.0385535489336872</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1965549802899043</v>
+        <v>0.1950115286726635</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04137987234826779</v>
+        <v>0.04242736255318266</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1098377238602152</v>
+        <v>0.1076442558269699</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.07187362916554692</v>
+        <v>0.07410787761821665</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.228452685993603</v>
+        <v>0.2313022803934104</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02869120571607226</v>
+        <v>0.02724449467586975</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.09016476931320352</v>
+        <v>0.09058465503926104</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04570585316397301</v>
+        <v>0.0455594268739898</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2017792115998469</v>
+        <v>0.2010068488084826</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01174171426095437</v>
+        <v>0.01229314504195303</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0487374381430362</v>
+        <v>0.05091181729709704</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05794093192774773</v>
+        <v>0.06139701250276611</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07526652399617086</v>
+        <v>0.07453624811184906</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01707465691615034</v>
+        <v>0.01787085431902155</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1123835596857656</v>
+        <v>0.111357314670719</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1541768937930962</v>
+        <v>0.1532188084770907</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1443532891289474</v>
+        <v>0.1422268275439174</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01860839757619086</v>
+        <v>0.01788830032012627</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.08886516774403154</v>
+        <v>0.08965047617465251</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1178474832776591</v>
+        <v>0.1157168896289288</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1194468808791969</v>
+        <v>0.1206824760565461</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04591383200399211</v>
+        <v>0.04587182356968461</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1053777982864454</v>
+        <v>0.1082641383527358</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1197218068111049</v>
+        <v>0.1213389888693718</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1452045367704772</v>
+        <v>0.1451956815883717</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05322454164127924</v>
+        <v>0.05465503785543403</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1805888569534794</v>
+        <v>0.1824654623038712</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2368651148215937</v>
+        <v>0.2420587119146371</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2113527547611976</v>
+        <v>0.2094125300547564</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04409853414068615</v>
+        <v>0.04276808323682464</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1353138976465741</v>
+        <v>0.1353076259107743</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1694617647092623</v>
+        <v>0.1704048383916743</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1699339718194637</v>
+        <v>0.1690221661520368</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.07227174339507046</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.06516686816418041</v>
+        <v>0.06516686816418039</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.04157731570482083</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02174592889813741</v>
+        <v>0.02420498578981132</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02542762956640806</v>
+        <v>0.02467839751591815</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01833496704129359</v>
+        <v>0.01851712655449095</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03667183842880395</v>
+        <v>0.03835898057404438</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01516789496232802</v>
+        <v>0.01522348269370765</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.07996824991443199</v>
+        <v>0.07828865796096104</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04126356763660273</v>
+        <v>0.04031670111096273</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04610808346887325</v>
+        <v>0.04804152176402897</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02531241775190239</v>
+        <v>0.02318036774386468</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.05690233606886828</v>
+        <v>0.06042969187144911</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03629810177621108</v>
+        <v>0.03683652020794197</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.0479302812704185</v>
+        <v>0.04816588316146848</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08142631240435211</v>
+        <v>0.08277208516414937</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0927706631324134</v>
+        <v>0.08658678280720924</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07139682204584576</v>
+        <v>0.07161151839921025</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0939668806329</v>
+        <v>0.09480417182023007</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.06787858518075221</v>
+        <v>0.07052251852588075</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1672199703441819</v>
+        <v>0.1631838842555149</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1160713763258552</v>
+        <v>0.1169704135875565</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.08824259322880822</v>
+        <v>0.09158161257788416</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06473987296517476</v>
+        <v>0.06401008565044303</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1128314712811208</v>
+        <v>0.1154817900864496</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.08014250530815717</v>
+        <v>0.08209506831264671</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.08095965702262974</v>
+        <v>0.08187221977816157</v>
       </c>
     </row>
     <row r="19">
@@ -1391,37 +1391,37 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03353316632313021</v>
+        <v>0.03437008839152188</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02189291193239419</v>
+        <v>0.02266327191416003</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1265143683647145</v>
+        <v>0.125895151283839</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.02394593771731563</v>
+        <v>0.02236383304084335</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.05542808964973014</v>
+        <v>0.05704811832814478</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.05323938685029873</v>
+        <v>0.05060142220059147</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2190136664033247</v>
+        <v>0.220222822145967</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.0147446087261945</v>
+        <v>0.01506653964867056</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.05028255962463962</v>
+        <v>0.05211180948158907</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.04151476754377253</v>
+        <v>0.04278005270188838</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1813013299742882</v>
+        <v>0.1811908542203985</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02497987706279908</v>
+        <v>0.02176395029443819</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.08854946540245817</v>
+        <v>0.09197774490274187</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.06985766634386839</v>
+        <v>0.06893057469313373</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1986935223355951</v>
+        <v>0.1974835919080939</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.07410739560720545</v>
+        <v>0.07574522394226445</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1191717421822118</v>
+        <v>0.11944073824387</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1214942075912306</v>
+        <v>0.1203106250411542</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2940076794943994</v>
+        <v>0.2953683838027973</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.04269853992832946</v>
+        <v>0.04406729961635556</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.0958787651901566</v>
+        <v>0.09648270341474877</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.08362036628513286</v>
+        <v>0.08491921006835677</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2357379799860917</v>
+        <v>0.2365695495745052</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.04317779112680256</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.07889307169986517</v>
+        <v>0.07889307169986519</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.04782067105367277</v>
@@ -1501,7 +1501,7 @@
         <v>0.1124014694887913</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.1197702531439929</v>
+        <v>0.1197702531439928</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.04036137394029157</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01987507736749515</v>
+        <v>0.02122797627401827</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01798377331077707</v>
+        <v>0.01730430307406301</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02917785351802205</v>
+        <v>0.02973159601578355</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05761567018327015</v>
+        <v>0.06070477142354627</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.03283937561092808</v>
+        <v>0.03272844280376477</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.05555463630125342</v>
+        <v>0.05738173190435639</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.08793238697898179</v>
+        <v>0.08946383367667374</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.0997869433343349</v>
+        <v>0.1011729234343939</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03105864300322594</v>
+        <v>0.02993181310474676</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.04060919894658149</v>
+        <v>0.04136108782875118</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.06522784091593391</v>
+        <v>0.06339251801759142</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.08692759555017963</v>
+        <v>0.08578627780170804</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04834994394656833</v>
+        <v>0.05000430167774576</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0459913075613566</v>
+        <v>0.04517332170249747</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.0619595357071534</v>
+        <v>0.0639991445376029</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1020607974621732</v>
+        <v>0.1021183168052856</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.06640564761334442</v>
+        <v>0.06588869766818975</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1002306652180031</v>
+        <v>0.1005809264149193</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.138599164525349</v>
+        <v>0.13902950843005</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1405919329117577</v>
+        <v>0.1408318192490569</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.05277217519550331</v>
+        <v>0.05174636034799564</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.06779584338626508</v>
+        <v>0.06776133000824712</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.09551602589235897</v>
+        <v>0.09606245727896606</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.115542335009636</v>
+        <v>0.1153134715867781</v>
       </c>
     </row>
     <row r="25">
@@ -1649,7 +1649,7 @@
         <v>0.02982308796100801</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.08036481128440108</v>
+        <v>0.08036481128440109</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.03541511234629968</v>
+        <v>0.0357261466209077</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.0229587754633467</v>
+        <v>0.02315967126024113</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01237031285801776</v>
+        <v>0.01220913796821765</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.04074995297297602</v>
+        <v>0.04007064037066091</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.05253630593513833</v>
+        <v>0.0522297127045027</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.05103913666006824</v>
+        <v>0.05227209504346451</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.02571295146091077</v>
+        <v>0.02620350211748704</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.08801516773213189</v>
+        <v>0.08861817024590571</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.04847677340149297</v>
+        <v>0.04841510150925277</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.04091016729106601</v>
+        <v>0.04045573571486123</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.02070536053889207</v>
+        <v>0.02121328010136419</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.0692020728430881</v>
+        <v>0.06950775362707438</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.06898359748268981</v>
+        <v>0.06860176424742026</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.05163708243775139</v>
+        <v>0.05070815208728519</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.03231700082104874</v>
+        <v>0.03267604022059001</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.0720272703523608</v>
+        <v>0.07336472455575886</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.09140952377442153</v>
+        <v>0.08936606962587303</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.08900571696656039</v>
+        <v>0.08761692025289505</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.05560424017120658</v>
+        <v>0.05445264076575346</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1225852439330933</v>
+        <v>0.1229996354974454</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.07510867502589945</v>
+        <v>0.07300342916606425</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.06364363291917575</v>
+        <v>0.06440972428311303</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.03899887743831856</v>
+        <v>0.040151152261162</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.09191275322673378</v>
+        <v>0.09302316334704758</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.02951964134194695</v>
+        <v>0.02907678024919414</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.04273204408488152</v>
+        <v>0.04373249883008606</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.03482911346942774</v>
+        <v>0.03458501080628115</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.07029117548749465</v>
+        <v>0.07101535571182008</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.04438887615279032</v>
+        <v>0.04483233428417258</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.08911752629493422</v>
+        <v>0.08917548409767231</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.08130491345883166</v>
+        <v>0.08137765738361995</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1159251507301171</v>
+        <v>0.1166299673061607</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.03894189837299921</v>
+        <v>0.03906096170145536</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.06904813381496258</v>
+        <v>0.06913295357508145</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.06092423118503892</v>
+        <v>0.06061502222879609</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.0963542912579205</v>
+        <v>0.09676330791643149</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.04267059817343825</v>
+        <v>0.0417017611876492</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.05899237088344188</v>
+        <v>0.05996548669425562</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.04857821135948649</v>
+        <v>0.04869102937543862</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.08796790491231071</v>
+        <v>0.08874072557042276</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.05964776198267376</v>
+        <v>0.06002293027141101</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1091449138385561</v>
+        <v>0.108887025230179</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1024354668091481</v>
+        <v>0.1023725688368086</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1322513404187101</v>
+        <v>0.1344811845187305</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.04886617916244719</v>
+        <v>0.04917504851820129</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.08167479511650817</v>
+        <v>0.08274458088182093</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.0739373997854991</v>
+        <v>0.07373454442122625</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.1086882462007622</v>
+        <v>0.1097450438869753</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8252</v>
+        <v>8092</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>12112</v>
+        <v>11944</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>11172</v>
+        <v>11170</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3237</v>
+        <v>3054</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6212</v>
+        <v>6421</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>32492</v>
+        <v>33583</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>32470</v>
+        <v>32505</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>10494</v>
+        <v>9963</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>17506</v>
+        <v>17099</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>50878</v>
+        <v>49941</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>49697</v>
+        <v>48868</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>14646</v>
+        <v>14669</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>22184</v>
+        <v>22270</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>29726</v>
+        <v>29850</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>27844</v>
+        <v>28713</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>13935</v>
+        <v>12690</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>19529</v>
+        <v>20316</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>58274</v>
+        <v>58582</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>59338</v>
+        <v>58196</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>25182</v>
+        <v>24585</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>37939</v>
+        <v>36738</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>84503</v>
+        <v>81792</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>81584</v>
+        <v>80277</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>33001</v>
+        <v>32083</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>11452</v>
+        <v>12295</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>22674</v>
+        <v>23598</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13710</v>
+        <v>13657</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>18615</v>
+        <v>18937</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>29601</v>
+        <v>29329</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>50061</v>
+        <v>51230</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>30427</v>
+        <v>29633</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>35676</v>
+        <v>35063</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>45844</v>
+        <v>45189</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>80056</v>
+        <v>81813</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>47925</v>
+        <v>47566</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>58824</v>
+        <v>58551</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>31718</v>
+        <v>31919</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>49585</v>
+        <v>50688</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>32644</v>
+        <v>31540</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>42719</v>
+        <v>44582</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>54418</v>
+        <v>53496</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>82817</v>
+        <v>81692</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>57000</v>
+        <v>58162</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>56619</v>
+        <v>57254</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>75425</v>
+        <v>75869</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>121523</v>
+        <v>123234</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>82454</v>
+        <v>81323</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>91880</v>
+        <v>92417</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>11306</v>
+        <v>12072</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1536</v>
+        <v>1675</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>38869</v>
+        <v>38270</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3049</v>
+        <v>3178</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>17610</v>
+        <v>17997</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>8514</v>
+        <v>8035</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>59147</v>
+        <v>59611</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>5246</v>
+        <v>5052</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>33680</v>
+        <v>33378</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>12440</v>
+        <v>11233</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>102853</v>
+        <v>103208</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8754</v>
+        <v>9129</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>30438</v>
+        <v>30577</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10744</v>
+        <v>12179</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>62110</v>
+        <v>61622</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>13879</v>
+        <v>14231</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>37457</v>
+        <v>36709</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>23805</v>
+        <v>24545</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>81416</v>
+        <v>82432</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>18771</v>
+        <v>17825</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>59966</v>
+        <v>60245</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>29576</v>
+        <v>29481</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>135671</v>
+        <v>135152</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4211</v>
+        <v>4409</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>17926</v>
+        <v>18726</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>21319</v>
+        <v>22591</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>27967</v>
+        <v>27695</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>6342</v>
+        <v>6638</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>43492</v>
+        <v>43095</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>59242</v>
+        <v>58874</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>60842</v>
+        <v>59946</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>13586</v>
+        <v>13061</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>67076</v>
+        <v>67669</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>88644</v>
+        <v>87042</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>94727</v>
+        <v>95707</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>16468</v>
+        <v>16453</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>38759</v>
+        <v>39821</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>44052</v>
+        <v>44647</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>53953</v>
+        <v>53950</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>19771</v>
+        <v>20302</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>69887</v>
+        <v>70614</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>91014</v>
+        <v>93010</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>89081</v>
+        <v>88263</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>32198</v>
+        <v>31226</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>102136</v>
+        <v>102131</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>127468</v>
+        <v>128177</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>134766</v>
+        <v>134043</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4421</v>
+        <v>4921</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>5406</v>
+        <v>5247</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3786</v>
+        <v>3823</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>7542</v>
+        <v>7889</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3150</v>
+        <v>3161</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>17560</v>
+        <v>17191</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>9020</v>
+        <v>8813</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>10455</v>
+        <v>10893</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>10403</v>
+        <v>9527</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>24594</v>
+        <v>26118</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>15429</v>
+        <v>15657</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>20726</v>
+        <v>20828</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>16555</v>
+        <v>16828</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>19725</v>
+        <v>18410</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>14741</v>
+        <v>14785</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>19326</v>
+        <v>19498</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>14096</v>
+        <v>14645</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>36720</v>
+        <v>35834</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>25372</v>
+        <v>25568</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>20009</v>
+        <v>20766</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>26607</v>
+        <v>26307</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>48767</v>
+        <v>49912</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>34065</v>
+        <v>34895</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>35008</v>
+        <v>35403</v>
       </c>
     </row>
     <row r="24">
@@ -3051,37 +3051,37 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>9158</v>
+        <v>9387</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>5761</v>
+        <v>5963</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>34248</v>
+        <v>34081</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>6660</v>
+        <v>6220</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>15522</v>
+        <v>15975</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>14427</v>
+        <v>13712</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>57765</v>
+        <v>58084</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>8094</v>
+        <v>8271</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>27813</v>
+        <v>28825</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>22173</v>
+        <v>22849</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>96898</v>
+        <v>96839</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6765</v>
+        <v>5894</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>24184</v>
+        <v>25120</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>18381</v>
+        <v>18137</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>53788</v>
+        <v>53460</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>20613</v>
+        <v>21068</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>33372</v>
+        <v>33447</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>32923</v>
+        <v>32602</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>77545</v>
+        <v>77903</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>23440</v>
+        <v>24191</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>53035</v>
+        <v>53369</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>44662</v>
+        <v>45356</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>125992</v>
+        <v>126436</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>12224</v>
+        <v>13056</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>11902</v>
+        <v>11453</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>18956</v>
+        <v>19315</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>41407</v>
+        <v>43627</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>20959</v>
+        <v>20888</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>38493</v>
+        <v>39759</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>60512</v>
+        <v>61566</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>76841</v>
+        <v>77909</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>38924</v>
+        <v>37512</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>55014</v>
+        <v>56033</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>87264</v>
+        <v>84808</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>129412</v>
+        <v>127713</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>29737</v>
+        <v>30754</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>30439</v>
+        <v>29897</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>40253</v>
+        <v>41578</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>73349</v>
+        <v>73391</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>42381</v>
+        <v>42051</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>69448</v>
+        <v>69691</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>95379</v>
+        <v>95675</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>108263</v>
+        <v>108448</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>66137</v>
+        <v>64851</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>91844</v>
+        <v>91797</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>127784</v>
+        <v>128515</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>172012</v>
+        <v>171671</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>26342</v>
+        <v>26573</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>17771</v>
+        <v>17926</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>9580</v>
+        <v>9456</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>32479</v>
+        <v>31938</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>41163</v>
+        <v>40923</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>42049</v>
+        <v>43065</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>21139</v>
+        <v>21542</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>73037</v>
+        <v>73538</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>74039</v>
+        <v>73945</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>65369</v>
+        <v>64643</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>33058</v>
+        <v>33869</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>112582</v>
+        <v>113079</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>51310</v>
+        <v>51026</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>39968</v>
+        <v>39249</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>25029</v>
+        <v>25307</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>57408</v>
+        <v>58474</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>71620</v>
+        <v>70019</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>73328</v>
+        <v>72183</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>45713</v>
+        <v>44766</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>101724</v>
+        <v>102068</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>114714</v>
+        <v>111499</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>101695</v>
+        <v>102919</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>62265</v>
+        <v>64104</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>149529</v>
+        <v>151335</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>96722</v>
+        <v>95271</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>145703</v>
+        <v>149114</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>117361</v>
+        <v>116539</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>248067</v>
+        <v>250623</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>149999</v>
+        <v>151497</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>316763</v>
+        <v>316969</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>286355</v>
+        <v>286611</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>432493</v>
+        <v>435122</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>259187</v>
+        <v>259980</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>480860</v>
+        <v>481451</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>419867</v>
+        <v>417736</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>699526</v>
+        <v>702495</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>139812</v>
+        <v>136638</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>201146</v>
+        <v>204464</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>163691</v>
+        <v>164071</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>310451</v>
+        <v>313178</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>201562</v>
+        <v>202829</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>387949</v>
+        <v>387033</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>360777</v>
+        <v>360555</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>493403</v>
+        <v>501722</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>325241</v>
+        <v>327296</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>568794</v>
+        <v>576244</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>509548</v>
+        <v>508150</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>789069</v>
+        <v>796742</v>
       </c>
     </row>
     <row r="40">
